--- a/no_load-VoltageProfile.xlsx
+++ b/no_load-VoltageProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\01-STATIC-DUMA-AMEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9017E15F-3898-4F20-B427-B34F1A581C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE60A2-075B-4148-B6AF-932A5E6EE52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parallel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Voltage p.u.</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>st</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1892,6 +1895,3288 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$C$3:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97382000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97426999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97416000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97421999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97391000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97411000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97463999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97511999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97518000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97472000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97496000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97504999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97391000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97404000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97406000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97426000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97443999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97379000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97387999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97411000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97404000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97396000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97438000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97382999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97407999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97407999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$D$3:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97414999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97467000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97504999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97531000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97579000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97687999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97594999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97643000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97662000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97670999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97465000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97504000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97553000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97467999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97453000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97460999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97467000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97433000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97523000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97528999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97545000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97468999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97468999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$E$3:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97448000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97524999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97582999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97552000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97477000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97533999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97692999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97836999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97855999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97716999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97789000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97818000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97477000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97514999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97521999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97580999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97635000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97443999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97528000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97536999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97506000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97516999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97494000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97609000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97619</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97643000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97455000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97528999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97529999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$F$3:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97463999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97479000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97580999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97709000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97735000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97616999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97516999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97594000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97804999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97997000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97733999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97836999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97931999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97970999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97987000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97516999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97568999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97577999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97655999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97753000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97509000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97585999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97599000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97557000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97572000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97584000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97516000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97541</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97694999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97707999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97587999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97589000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$G$3:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.97492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97507999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97636000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97731999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97796000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97828000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97680999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97711000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97555999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97652000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97914999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98155000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98187000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97826999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97955000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98073999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98121999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98143000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97555999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97631999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97819</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97504000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97643999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97626000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97641</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97555999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97587999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9778</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97796000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97836000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97524</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97645000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97646999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$H$3:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$I$3:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-993B-4B4E-91FF-F407995E7AD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460742080"/>
+        <c:axId val="460744160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460742080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460744160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460744160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460742080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$B$3:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97346999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$C$3:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.97389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97416000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97448000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97455000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97392999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97401000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97421000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97424999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97413000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97416999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97472000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97521000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97526999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97402999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97455000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97504000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97514000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97518000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97448000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97450999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97458999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97413000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97414999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97435000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97453000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97458999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97421000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97421000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.97428000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97479000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97518000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97543000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97555999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97433000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97489000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97494999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97509000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97474000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97482000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97487999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97446999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97591000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97687999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97453000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97465999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97555999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97655000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97682999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97543000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97565999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97446999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97477000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97516000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97552000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97565000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97489000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$E$3:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.97458999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97594000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97633000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97652000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97467000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97492999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97550999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97560999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97582000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97528999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97487999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97704999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97848999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97867999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97497999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97516999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97650999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97728000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97828999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97841999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97633000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97641999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97665999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97487999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97526999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97533999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97479000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97592000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97665000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97552000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97553000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$F$3:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.97485999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97587999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97665000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97716000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97741999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97496000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97531000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97607999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97577999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97594000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97606000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97524</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97601000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97811999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98004000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97536999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97741</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97843999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97938999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97977999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97994000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97716000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97760999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97524</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97575999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97585</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97511000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97733999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97609000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97609999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$G$3:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.97506000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97633999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97731000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97794999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97826999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97658999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97679000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97709000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97621999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97641</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97655999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97553999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98153000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98185</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97570999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97602999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97824999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97953000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98072999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98121000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97794000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97555000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97619</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97631000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97538999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97816999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97848999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97662000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$H$3:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$I$3:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D466-4B54-A46F-595850B17E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2072564112"/>
+        <c:axId val="449040880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2072564112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449040880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449040880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072564112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1932,7 +5217,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2489,6 +6886,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>699134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF58375-2F70-4D81-A4AC-B9D7E2E1D6E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B425483A-59EB-4C88-8B73-3DFB6504A436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2754,8 +7233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3930,24 +8409,2371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142C8CCA-8C79-4C53-A118-2350A3E12220}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="9" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.97377000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.97406999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.97436</v>
+      </c>
+      <c r="F3">
+        <v>0.97463999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.97492000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.05</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.97382000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.97414999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.97448000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.97479000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.97507999999999995</v>
+      </c>
+      <c r="H4">
+        <v>1.05</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.97406999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.97467000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.97524999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.97580999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.97636000000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.05</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.97426999999999997</v>
+      </c>
+      <c r="D6">
+        <v>0.97504999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.97582999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.97658</v>
+      </c>
+      <c r="G6">
+        <v>0.97731999999999997</v>
+      </c>
+      <c r="H6">
+        <v>1.05</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.97531000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.97621000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.97709000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.97796000000000005</v>
+      </c>
+      <c r="H7">
+        <v>1.05</v>
+      </c>
+      <c r="I7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.97445999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.97543999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.97735000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.97828000000000004</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.97416000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.97484999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.97552000000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.97616999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.97680999999999996</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.97421999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.97497</v>
+      </c>
+      <c r="E10">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.97641</v>
+      </c>
+      <c r="G10">
+        <v>0.97711000000000003</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.97391000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.97435000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.97477000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.97516999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.97555999999999998</v>
+      </c>
+      <c r="H11">
+        <v>1.05</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.97411000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.97472999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.97533999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.97594000000000003</v>
+      </c>
+      <c r="G12">
+        <v>0.97652000000000005</v>
+      </c>
+      <c r="H12">
+        <v>1.05</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.97463999999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.97579000000000005</v>
+      </c>
+      <c r="E13">
+        <v>0.97692999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.97804999999999997</v>
+      </c>
+      <c r="G13">
+        <v>0.97914999999999996</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.97511999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.97675000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.97836999999999996</v>
+      </c>
+      <c r="F14">
+        <v>0.97997000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.98155000000000003</v>
+      </c>
+      <c r="H14">
+        <v>1.05</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.97518000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.97687999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0.97855999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.98021999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.98187000000000002</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.97445999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.97543999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="F16">
+        <v>0.97733999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.97826999999999997</v>
+      </c>
+      <c r="H16">
+        <v>1.05</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.97472000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.97594999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.97716999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.97836999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.97955000000000003</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.97496000000000005</v>
+      </c>
+      <c r="D18">
+        <v>0.97643000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.97789000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.97931999999999997</v>
+      </c>
+      <c r="G18">
+        <v>0.98073999999999995</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.97504999999999997</v>
+      </c>
+      <c r="D19">
+        <v>0.97662000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.97818000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.97970999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.98121999999999998</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.97670999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.97987000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.98143000000000002</v>
+      </c>
+      <c r="H20">
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.97391000000000005</v>
+      </c>
+      <c r="D21">
+        <v>0.97435000000000005</v>
+      </c>
+      <c r="E21">
+        <v>0.97477000000000003</v>
+      </c>
+      <c r="F21">
+        <v>0.97516999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.97555999999999998</v>
+      </c>
+      <c r="H21">
+        <v>1.05</v>
+      </c>
+      <c r="I21">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.97404000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.97514999999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.97568999999999995</v>
+      </c>
+      <c r="G22">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="H22">
+        <v>1.05</v>
+      </c>
+      <c r="I22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.97406000000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.97465000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.97521999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.97577999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.97631999999999997</v>
+      </c>
+      <c r="H23">
+        <v>1.05</v>
+      </c>
+      <c r="I23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.97426000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.97504000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.97580999999999996</v>
+      </c>
+      <c r="F24">
+        <v>0.97655999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.97728999999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.05</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.97443999999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.97635000000000005</v>
+      </c>
+      <c r="F25">
+        <v>0.97726999999999997</v>
+      </c>
+      <c r="G25">
+        <v>0.97819</v>
+      </c>
+      <c r="H25">
+        <v>1.05</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.97553000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.97653999999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.97753000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.97850999999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.05</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.97379000000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.97411999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.97443999999999997</v>
+      </c>
+      <c r="F27">
+        <v>0.97475000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.97504000000000002</v>
+      </c>
+      <c r="H27">
+        <v>1.05</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.97387999999999997</v>
+      </c>
+      <c r="D28">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="E28">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.97509000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.97548000000000001</v>
+      </c>
+      <c r="H28">
+        <v>1.05</v>
+      </c>
+      <c r="I28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.97406999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.97467999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.97528000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.97585999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.97643999999999997</v>
+      </c>
+      <c r="H29">
+        <v>1.05</v>
+      </c>
+      <c r="I29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.97411000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.97475000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.97536999999999996</v>
+      </c>
+      <c r="F30">
+        <v>0.97599000000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="H30">
+        <v>1.05</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.97453000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.97506000000000004</v>
+      </c>
+      <c r="F31">
+        <v>0.97557000000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.97606999999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.05</v>
+      </c>
+      <c r="I31">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.97404000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.97460999999999998</v>
+      </c>
+      <c r="E32">
+        <v>0.97516999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.97572000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.97626000000000002</v>
+      </c>
+      <c r="H32">
+        <v>1.05</v>
+      </c>
+      <c r="I32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.97406999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.97467000000000004</v>
+      </c>
+      <c r="E33">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.97584000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.97641</v>
+      </c>
+      <c r="H33">
+        <v>1.05</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.97433000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.97475000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.97516000000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.97555999999999998</v>
+      </c>
+      <c r="H34">
+        <v>1.05</v>
+      </c>
+      <c r="I34">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.97396000000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.97445999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.97494000000000003</v>
+      </c>
+      <c r="F35">
+        <v>0.97541</v>
+      </c>
+      <c r="G35">
+        <v>0.97587999999999997</v>
+      </c>
+      <c r="H35">
+        <v>1.05</v>
+      </c>
+      <c r="I35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.97435000000000005</v>
+      </c>
+      <c r="D36">
+        <v>0.97523000000000004</v>
+      </c>
+      <c r="E36">
+        <v>0.97609000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.97694999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.9778</v>
+      </c>
+      <c r="H36">
+        <v>1.05</v>
+      </c>
+      <c r="I36">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.97438000000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.97528999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.97619</v>
+      </c>
+      <c r="F37">
+        <v>0.97707999999999995</v>
+      </c>
+      <c r="G37">
+        <v>0.97796000000000005</v>
+      </c>
+      <c r="H37">
+        <v>1.05</v>
+      </c>
+      <c r="I37">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.97445999999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.97545000000000004</v>
+      </c>
+      <c r="E38">
+        <v>0.97643000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="G38">
+        <v>0.97836000000000001</v>
+      </c>
+      <c r="H38">
+        <v>1.05</v>
+      </c>
+      <c r="I38">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.97382999999999997</v>
+      </c>
+      <c r="D39">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="E39">
+        <v>0.97455000000000003</v>
+      </c>
+      <c r="F39">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.97524</v>
+      </c>
+      <c r="H39">
+        <v>1.05</v>
+      </c>
+      <c r="I39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.97407999999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.97468999999999995</v>
+      </c>
+      <c r="E40">
+        <v>0.97528999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.97587999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0.97645000000000004</v>
+      </c>
+      <c r="H40">
+        <v>1.05</v>
+      </c>
+      <c r="I40">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.97407999999999995</v>
+      </c>
+      <c r="D41">
+        <v>0.97468999999999995</v>
+      </c>
+      <c r="E41">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="F41">
+        <v>0.97589000000000004</v>
+      </c>
+      <c r="G41">
+        <v>0.97646999999999995</v>
+      </c>
+      <c r="H41">
+        <v>1.05</v>
+      </c>
+      <c r="I41">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4602586-F971-457A-A2A4-CB2E1D288B5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="9" width="4.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.97428000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.97458999999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.97485999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.97506000000000004</v>
+      </c>
+      <c r="H3">
+        <v>1.05</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.97416000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.97479000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.97536</v>
+      </c>
+      <c r="F4">
+        <v>0.97587999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.97633999999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.05</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.97435000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.97518000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.97594000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.97665000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.97731000000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.05</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.97448000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.97543000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.97633000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.97716000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.97794999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.05</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0.97455000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.97555999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.97652000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.97741999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.97826999999999997</v>
+      </c>
+      <c r="H7">
+        <v>1.05</v>
+      </c>
+      <c r="I7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.97392999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.97433000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.97467000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.97496000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.97519</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.97401000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.97492999999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.97531000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.97563</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.97421000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.97489000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.97550999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.97607999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.97658999999999996</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.97423999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.97494999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.97560999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.97621000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.97675000000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.05</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C12">
+        <v>0.97424999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.97497</v>
+      </c>
+      <c r="E12">
+        <v>0.97563</v>
+      </c>
+      <c r="F12">
+        <v>0.97624</v>
+      </c>
+      <c r="G12">
+        <v>0.97679000000000005</v>
+      </c>
+      <c r="H12">
+        <v>1.05</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C13">
+        <v>0.97431000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.97509000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.97582000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.97648000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.97709000000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.97413000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.97474000000000005</v>
+      </c>
+      <c r="E14">
+        <v>0.97528999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.97577999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.97621999999999998</v>
+      </c>
+      <c r="H14">
+        <v>1.05</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C15">
+        <v>0.97416999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.97482000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.97594000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.97641</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.97487999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.97606000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.97655999999999998</v>
+      </c>
+      <c r="H16">
+        <v>1.05</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.97446999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.97487999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.97524</v>
+      </c>
+      <c r="G17">
+        <v>0.97553999999999996</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C18">
+        <v>0.97419</v>
+      </c>
+      <c r="D18">
+        <v>0.97484999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.97545999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.97601000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.97472000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.97591000000000006</v>
+      </c>
+      <c r="E19">
+        <v>0.97704999999999997</v>
+      </c>
+      <c r="F19">
+        <v>0.97811999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.97914000000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.97521000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.97687999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.97848999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.98004000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.98153000000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C21">
+        <v>0.97526999999999997</v>
+      </c>
+      <c r="D21">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.97867999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.98028999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.98185</v>
+      </c>
+      <c r="H21">
+        <v>1.05</v>
+      </c>
+      <c r="I21">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C22">
+        <v>0.97402999999999995</v>
+      </c>
+      <c r="D22">
+        <v>0.97453000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.97497999999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.97536999999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.97570999999999997</v>
+      </c>
+      <c r="H22">
+        <v>1.05</v>
+      </c>
+      <c r="I22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.97465999999999997</v>
+      </c>
+      <c r="E23">
+        <v>0.97516999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.97563</v>
+      </c>
+      <c r="G23">
+        <v>0.97602999999999995</v>
+      </c>
+      <c r="H23">
+        <v>1.05</v>
+      </c>
+      <c r="I23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.97455000000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.97555999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.97650999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.97741</v>
+      </c>
+      <c r="G24">
+        <v>0.97824999999999995</v>
+      </c>
+      <c r="H24">
+        <v>1.05</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C25">
+        <v>0.9748</v>
+      </c>
+      <c r="D25">
+        <v>0.97606999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.97728000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.97843999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.97953000000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.05</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C26">
+        <v>0.97504000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.97655000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.97938999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.98072999999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.05</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C27">
+        <v>0.97514000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.97675000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.97828999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.97977999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.98121000000000003</v>
+      </c>
+      <c r="H27">
+        <v>1.05</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.97518000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.97682999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.97841999999999996</v>
+      </c>
+      <c r="F28">
+        <v>0.97994000000000003</v>
+      </c>
+      <c r="G28">
+        <v>0.98141</v>
+      </c>
+      <c r="H28">
+        <v>1.05</v>
+      </c>
+      <c r="I28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C29">
+        <v>0.97448000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.97543000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.97633000000000003</v>
+      </c>
+      <c r="F29">
+        <v>0.97716000000000003</v>
+      </c>
+      <c r="G29">
+        <v>0.97794000000000003</v>
+      </c>
+      <c r="H29">
+        <v>1.05</v>
+      </c>
+      <c r="I29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.97450999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.97641999999999995</v>
+      </c>
+      <c r="F30">
+        <v>0.97728999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="H30">
+        <v>1.05</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.97458999999999996</v>
+      </c>
+      <c r="D31">
+        <v>0.97565999999999997</v>
+      </c>
+      <c r="E31">
+        <v>0.97665999999999997</v>
+      </c>
+      <c r="F31">
+        <v>0.97760999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="H31">
+        <v>1.05</v>
+      </c>
+      <c r="I31">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.97446999999999995</v>
+      </c>
+      <c r="E32">
+        <v>0.97487999999999997</v>
+      </c>
+      <c r="F32">
+        <v>0.97524</v>
+      </c>
+      <c r="G32">
+        <v>0.97555000000000003</v>
+      </c>
+      <c r="H32">
+        <v>1.05</v>
+      </c>
+      <c r="I32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.97413000000000005</v>
+      </c>
+      <c r="D33">
+        <v>0.97472999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.97526999999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.97575999999999996</v>
+      </c>
+      <c r="G33">
+        <v>0.97619</v>
+      </c>
+      <c r="H33">
+        <v>1.05</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C34">
+        <v>0.97414999999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.97477000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.97533999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.97585</v>
+      </c>
+      <c r="G34">
+        <v>0.97631000000000001</v>
+      </c>
+      <c r="H34">
+        <v>1.05</v>
+      </c>
+      <c r="I34">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C35">
+        <v>0.97397</v>
+      </c>
+      <c r="D35">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="E35">
+        <v>0.97479000000000005</v>
+      </c>
+      <c r="F35">
+        <v>0.97511000000000003</v>
+      </c>
+      <c r="G35">
+        <v>0.97538999999999998</v>
+      </c>
+      <c r="H35">
+        <v>1.05</v>
+      </c>
+      <c r="I35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C36">
+        <v>0.97435000000000005</v>
+      </c>
+      <c r="D36">
+        <v>0.97516000000000003</v>
+      </c>
+      <c r="E36">
+        <v>0.97592000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.97663</v>
+      </c>
+      <c r="G36">
+        <v>0.97726999999999997</v>
+      </c>
+      <c r="H36">
+        <v>1.05</v>
+      </c>
+      <c r="I36">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C37">
+        <v>0.97453000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.97552000000000005</v>
+      </c>
+      <c r="E37">
+        <v>0.97645999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.97733999999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.97816999999999998</v>
+      </c>
+      <c r="H37">
+        <v>1.05</v>
+      </c>
+      <c r="I37">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C38">
+        <v>0.97458999999999996</v>
+      </c>
+      <c r="D38">
+        <v>0.97565000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.97665000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0.97848999999999997</v>
+      </c>
+      <c r="H38">
+        <v>1.05</v>
+      </c>
+      <c r="I38">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.97421000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.97489000000000003</v>
+      </c>
+      <c r="E39">
+        <v>0.97552000000000005</v>
+      </c>
+      <c r="F39">
+        <v>0.97609000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="H39">
+        <v>1.05</v>
+      </c>
+      <c r="I39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.97346999999999995</v>
+      </c>
+      <c r="C40">
+        <v>0.97421000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.97553000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0.97662000000000004</v>
+      </c>
+      <c r="H40">
+        <v>1.05</v>
+      </c>
+      <c r="I40">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/no_load-VoltageProfile.xlsx
+++ b/no_load-VoltageProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\01-STATIC-DUMA-AMEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E2352-877E-47CA-9040-B4A5523DD8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AF574C-7FE3-4C37-9705-9E45884383EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parallel" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Voltage p.u.</t>
   </si>
@@ -66,19 +66,19 @@
     <t>100% PV Penetration</t>
   </si>
   <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>st</t>
   </si>
   <si>
-    <t>B</t>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Upper Voltage Limit</t>
+  </si>
+  <si>
+    <t>Lower Voltage Limit</t>
   </si>
 </sst>
 </file>
@@ -278,12 +278,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -396,8 +397,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -568,12 +569,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$8</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -590,8 +592,8 @@
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -762,12 +764,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -880,8 +883,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1052,12 +1055,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -1170,8 +1174,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1342,12 +1346,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -1460,8 +1465,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1638,12 +1643,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -1756,8 +1762,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1898,7 +1904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2072,7 +2078,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2276,12 +2282,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2394,8 +2401,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numLit>
@@ -2869,12 +2876,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2987,8 +2995,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3159,12 +3167,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3277,8 +3286,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3449,12 +3458,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3567,8 +3577,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3739,12 +3749,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3857,8 +3868,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4029,12 +4040,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4147,8 +4159,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4325,12 +4337,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4443,8 +4456,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4585,7 +4598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4605,12 +4618,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4723,8 +4737,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4865,7 +4879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4885,12 +4899,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -5003,8 +5018,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5623,121 +5638,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5794,121 +5809,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97377000000000002</c:v>
+                  <c:v>1.0003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97382000000000002</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97426999999999997</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97440000000000004</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97416000000000003</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97421999999999997</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97391000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97411000000000003</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97463999999999995</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97511999999999999</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97518000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97472000000000003</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97496000000000005</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97504999999999997</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97509999999999997</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97391000000000005</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97404000000000002</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97406000000000004</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97426000000000001</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97443999999999997</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97450000000000003</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97379000000000004</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97387999999999997</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97411000000000003</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97399999999999998</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97404000000000002</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97389999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97396000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97438000000000002</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97382999999999997</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97407999999999995</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97407999999999995</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,121 +5980,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97414999999999996</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97467000000000004</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97504999999999997</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97531000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97543999999999997</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97484999999999999</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97497</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97472999999999999</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97579000000000005</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97675000000000001</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97687999999999997</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97543999999999997</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97594999999999998</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97643000000000002</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97662000000000004</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97670999999999997</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97460000000000002</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97465000000000002</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97504000000000002</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97540000000000004</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97553000000000001</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97411999999999999</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97430000000000005</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97467999999999999</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97453000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97460999999999998</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97467000000000004</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97433000000000003</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97523000000000004</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97528999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97545000000000004</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97419999999999995</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97468999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97468999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,121 +6151,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97436</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97448000000000001</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97524999999999995</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97582999999999998</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97621000000000002</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97552000000000005</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97570000000000001</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97477000000000003</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97533999999999998</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97692999999999997</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97836999999999996</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97855999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97716999999999998</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97789000000000004</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97818000000000005</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97829999999999995</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97477000000000003</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97514999999999996</c:v>
+                  <c:v>1.0049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97521999999999998</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97580999999999996</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97635000000000005</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97653999999999996</c:v>
+                  <c:v>1.0036</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97443999999999997</c:v>
+                  <c:v>1.0043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97470000000000001</c:v>
+                  <c:v>1.0045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97528000000000004</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97536999999999996</c:v>
+                  <c:v>1.0025999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97506000000000004</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97526000000000002</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97494000000000003</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97609000000000001</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97619</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97643000000000002</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97455000000000003</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97528999999999999</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97529999999999994</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,121 +6322,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97463999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97479000000000005</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97580999999999996</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97658</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97709000000000001</c:v>
+                  <c:v>1.0035000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97735000000000005</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97616999999999998</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97641</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97594000000000003</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97804999999999997</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97997000000000001</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98021999999999998</c:v>
+                  <c:v>1.0021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97733999999999999</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97836999999999996</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97931999999999997</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97970999999999997</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97987000000000002</c:v>
+                  <c:v>1.0044999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97568999999999995</c:v>
+                  <c:v>1.0065999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97577999999999998</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97655999999999998</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97726999999999997</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97753000000000001</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0057</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97509000000000001</c:v>
+                  <c:v>1.0061</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97585999999999995</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97599000000000002</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97557000000000005</c:v>
+                  <c:v>1.0036</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97572000000000003</c:v>
+                  <c:v>1.0039</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97584000000000004</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97516000000000003</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97541</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97694999999999999</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97707999999999995</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97740000000000005</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>1.004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97587999999999997</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97589000000000004</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6484,121 +6499,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97492000000000001</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97507999999999995</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97636000000000001</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97731999999999997</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97796000000000005</c:v>
+                  <c:v>1.0044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97828000000000004</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97680999999999996</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97711000000000003</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97652000000000005</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97914999999999996</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98155000000000003</c:v>
+                  <c:v>1.0035000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98187000000000002</c:v>
+                  <c:v>1.0025999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97955000000000003</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98073999999999995</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98121999999999998</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98143000000000002</c:v>
+                  <c:v>1.0055000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97619999999999996</c:v>
+                  <c:v>1.0082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97631999999999997</c:v>
+                  <c:v>1.0021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97728999999999999</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97819</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97850999999999999</c:v>
+                  <c:v>1.0059</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97504000000000002</c:v>
+                  <c:v>1.0071000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97548000000000001</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97643999999999997</c:v>
+                  <c:v>1.0077</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>1.0042</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97606999999999999</c:v>
+                  <c:v>1.0044</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97626000000000002</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97641</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97587999999999997</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9778</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97796000000000005</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97836000000000001</c:v>
+                  <c:v>1.0045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97524</c:v>
+                  <c:v>1.0048999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97645000000000004</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97646999999999995</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6619,7 +6634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6780,7 +6795,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7392,10 +7407,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -7518,121 +7533,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7688,10 +7703,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -7814,121 +7829,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97377000000000002</c:v>
+                  <c:v>1.0003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97382000000000002</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97426999999999997</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97440000000000004</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97416000000000003</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97421999999999997</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97391000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97411000000000003</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97463999999999995</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97511999999999999</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97518000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97472000000000003</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97496000000000005</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97504999999999997</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97509999999999997</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97391000000000005</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97404000000000002</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97406000000000004</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97426000000000001</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97443999999999997</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97450000000000003</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97379000000000004</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97387999999999997</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97411000000000003</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97399999999999998</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97404000000000002</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97389999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97396000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97438000000000002</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97382999999999997</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97407999999999995</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97407999999999995</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7984,10 +7999,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8110,121 +8125,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97414999999999996</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97467000000000004</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97504999999999997</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97531000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97543999999999997</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97484999999999999</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97497</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97472999999999999</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97579000000000005</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97675000000000001</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97687999999999997</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97543999999999997</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97594999999999998</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97643000000000002</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97662000000000004</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97670999999999997</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97460000000000002</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97465000000000002</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97504000000000002</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97540000000000004</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97553000000000001</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97411999999999999</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97430000000000005</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97467999999999999</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97453000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97460999999999998</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97467000000000004</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97433000000000003</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97523000000000004</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97528999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97545000000000004</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97419999999999995</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97468999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97468999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8280,10 +8295,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8406,121 +8421,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97436</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97448000000000001</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97524999999999995</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97582999999999998</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97621000000000002</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97552000000000005</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97570000000000001</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97477000000000003</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97533999999999998</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97692999999999997</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97836999999999996</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97855999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97716999999999998</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97789000000000004</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97818000000000005</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97829999999999995</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97477000000000003</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97514999999999996</c:v>
+                  <c:v>1.0049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97521999999999998</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97580999999999996</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97635000000000005</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97653999999999996</c:v>
+                  <c:v>1.0036</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97443999999999997</c:v>
+                  <c:v>1.0043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97470000000000001</c:v>
+                  <c:v>1.0045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97528000000000004</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97536999999999996</c:v>
+                  <c:v>1.0025999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97506000000000004</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97526000000000002</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97494000000000003</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97609000000000001</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97619</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97643000000000002</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97455000000000003</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97528999999999999</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97529999999999994</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8576,10 +8591,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8702,121 +8717,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97463999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97479000000000005</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97580999999999996</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97658</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97709000000000001</c:v>
+                  <c:v>1.0035000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97735000000000005</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97616999999999998</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97641</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97594000000000003</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97804999999999997</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97997000000000001</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98021999999999998</c:v>
+                  <c:v>1.0021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97733999999999999</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97836999999999996</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97931999999999997</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97970999999999997</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97987000000000002</c:v>
+                  <c:v>1.0044999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97568999999999995</c:v>
+                  <c:v>1.0065999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97577999999999998</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97655999999999998</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97726999999999997</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97753000000000001</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0057</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97509000000000001</c:v>
+                  <c:v>1.0061</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97585999999999995</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97599000000000002</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97557000000000005</c:v>
+                  <c:v>1.0036</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97572000000000003</c:v>
+                  <c:v>1.0039</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97584000000000004</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97516000000000003</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97541</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97694999999999999</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97707999999999995</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97740000000000005</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>1.004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97587999999999997</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97589000000000004</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8878,10 +8893,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -9004,121 +9019,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97492000000000001</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97507999999999995</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97636000000000001</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97731999999999997</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97796000000000005</c:v>
+                  <c:v>1.0044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97828000000000004</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97680999999999996</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97711000000000003</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97652000000000005</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97914999999999996</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98155000000000003</c:v>
+                  <c:v>1.0035000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98187000000000002</c:v>
+                  <c:v>1.0025999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97955000000000003</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98073999999999995</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98121999999999998</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98143000000000002</c:v>
+                  <c:v>1.0055000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97619999999999996</c:v>
+                  <c:v>1.0082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97631999999999997</c:v>
+                  <c:v>1.0021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97728999999999999</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97819</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97850999999999999</c:v>
+                  <c:v>1.0059</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97504000000000002</c:v>
+                  <c:v>1.0071000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97548000000000001</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97643999999999997</c:v>
+                  <c:v>1.0077</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>1.0042</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97606999999999999</c:v>
+                  <c:v>1.0044</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97626000000000002</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97641</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97587999999999997</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9778</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97796000000000005</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97836000000000001</c:v>
+                  <c:v>1.0045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97524</c:v>
+                  <c:v>1.0048999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97645000000000004</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97646999999999995</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9139,7 +9154,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9164,10 +9179,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -9425,7 +9440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9450,10 +9465,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -10997,7 +11012,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11141,7 +11156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11321,121 +11336,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97345999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11492,121 +11507,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97377000000000002</c:v>
+                  <c:v>1.0003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97382000000000002</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97426999999999997</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97440000000000004</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97416000000000003</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97421999999999997</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97391000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97411000000000003</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97463999999999995</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97511999999999999</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97518000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97472000000000003</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97496000000000005</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97504999999999997</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97509999999999997</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97391000000000005</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97404000000000002</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97406000000000004</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97426000000000001</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97443999999999997</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97450000000000003</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97379000000000004</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97387999999999997</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97411000000000003</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97399999999999998</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97404000000000002</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97389999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97396000000000005</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97438000000000002</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97382999999999997</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97407999999999995</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97407999999999995</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11663,121 +11678,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97406999999999999</c:v>
+                  <c:v>1.0005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97414999999999996</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97467000000000004</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97504999999999997</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97531000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97543999999999997</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97484999999999999</c:v>
+                  <c:v>1.0006999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97497</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97472999999999999</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97579000000000005</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97675000000000001</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97687999999999997</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97543999999999997</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97594999999999998</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97643000000000002</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97662000000000004</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97670999999999997</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97435000000000005</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97460000000000002</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97465000000000002</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97504000000000002</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97540000000000004</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97553000000000001</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97411999999999999</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97430000000000005</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97467999999999999</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97453000000000001</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97460999999999998</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97467000000000004</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97433000000000003</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97445999999999999</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97523000000000004</c:v>
+                  <c:v>1.0007999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97528999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97545000000000004</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97419999999999995</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97468999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97468999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11834,121 +11849,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97436</c:v>
+                  <c:v>1.0008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97448000000000001</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97524999999999995</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97582999999999998</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97621000000000002</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97552000000000005</c:v>
+                  <c:v>1.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97570000000000001</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97477000000000003</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97533999999999998</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97692999999999997</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97836999999999996</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97855999999999999</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97640000000000005</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97716999999999998</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97789000000000004</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97818000000000005</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97829999999999995</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97477000000000003</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97514999999999996</c:v>
+                  <c:v>1.0049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97521999999999998</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97580999999999996</c:v>
+                  <c:v>1.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97635000000000005</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97653999999999996</c:v>
+                  <c:v>1.0036</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97443999999999997</c:v>
+                  <c:v>1.0043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97470000000000001</c:v>
+                  <c:v>1.0045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97528000000000004</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97536999999999996</c:v>
+                  <c:v>1.0025999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97506000000000004</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97526000000000002</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97494000000000003</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97609000000000001</c:v>
+                  <c:v>1.0011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97619</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97643000000000002</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97455000000000003</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97528999999999999</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97529999999999994</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12005,121 +12020,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97463999999999995</c:v>
+                  <c:v>1.0012000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97479000000000005</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97580999999999996</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97658</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97709000000000001</c:v>
+                  <c:v>1.0035000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97735000000000005</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97616999999999998</c:v>
+                  <c:v>1.0013000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97641</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97594000000000003</c:v>
+                  <c:v>1.0024999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97804999999999997</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97997000000000001</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98021999999999998</c:v>
+                  <c:v>1.0021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97733999999999999</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97836999999999996</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97931999999999997</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97970999999999997</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97987000000000002</c:v>
+                  <c:v>1.0044999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97516999999999998</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97568999999999995</c:v>
+                  <c:v>1.0065999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97577999999999998</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97655999999999998</c:v>
+                  <c:v>1.0019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97726999999999997</c:v>
+                  <c:v>1.0038</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97753000000000001</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97475000000000001</c:v>
+                  <c:v>1.0057</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97509000000000001</c:v>
+                  <c:v>1.0061</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97585999999999995</c:v>
+                  <c:v>1.0063</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97599000000000002</c:v>
+                  <c:v>1.0034000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97557000000000005</c:v>
+                  <c:v>1.0036</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97572000000000003</c:v>
+                  <c:v>1.0039</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97584000000000004</c:v>
+                  <c:v>1.0017</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97516000000000003</c:v>
+                  <c:v>1.0022</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97541</c:v>
+                  <c:v>1.0023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97694999999999999</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97707999999999995</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97740000000000005</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>1.004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97587999999999997</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97589000000000004</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12182,121 +12197,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.97492000000000001</c:v>
+                  <c:v>1.0014000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97507999999999995</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97636000000000001</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97731999999999997</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97796000000000005</c:v>
+                  <c:v>1.0044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97828000000000004</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97680999999999996</c:v>
+                  <c:v>1.0016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97711000000000003</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97652000000000005</c:v>
+                  <c:v>1.0031000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97914999999999996</c:v>
+                  <c:v>1.0032000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98155000000000003</c:v>
+                  <c:v>1.0035000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98187000000000002</c:v>
+                  <c:v>1.0025999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97955000000000003</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98073999999999995</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98121999999999998</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98143000000000002</c:v>
+                  <c:v>1.0055000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97619999999999996</c:v>
+                  <c:v>1.0082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97631999999999997</c:v>
+                  <c:v>1.0021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97728999999999999</c:v>
+                  <c:v>1.0024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97819</c:v>
+                  <c:v>1.0046999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97850999999999999</c:v>
+                  <c:v>1.0059</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97504000000000002</c:v>
+                  <c:v>1.0071000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97548000000000001</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97643999999999997</c:v>
+                  <c:v>1.0077</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97660000000000002</c:v>
+                  <c:v>1.0042</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97606999999999999</c:v>
+                  <c:v>1.0044</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97626000000000002</c:v>
+                  <c:v>1.0047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.97641</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97555999999999998</c:v>
+                  <c:v>1.0026999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97587999999999997</c:v>
+                  <c:v>1.0027999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9778</c:v>
+                  <c:v>1.0018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.97796000000000005</c:v>
+                  <c:v>1.0037</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97836000000000001</c:v>
+                  <c:v>1.0045999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.97524</c:v>
+                  <c:v>1.0048999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97645000000000004</c:v>
+                  <c:v>1.0028999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97646999999999995</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12317,7 +12332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12478,7 +12493,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13017,12 +13032,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -13135,8 +13151,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -13307,12 +13323,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -13425,8 +13442,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -13597,12 +13614,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -13715,8 +13733,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -13887,12 +13905,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -14005,8 +14024,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -14177,12 +14196,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -14295,8 +14315,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -14473,12 +14493,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -14591,8 +14612,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -14733,7 +14754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14753,12 +14774,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -14871,8 +14893,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -15013,7 +15035,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15033,12 +15055,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -15151,8 +15174,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -15560,7 +15583,7 @@
         </c:txPr>
         <c:crossAx val="1550051695"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
@@ -18427,16 +18450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>208837</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>375091</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>251153</xdr:rowOff>
+      <xdr:rowOff>15626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>6926</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>159326</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18504,16 +18527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>513004</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60063</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136487</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>373829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18581,16 +18604,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145597</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18883,8 +18906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18933,15 +18956,15 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="3">
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -19142,7 +19165,7 @@
         <v>0.95</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -20061,8 +20084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142C8CCA-8C79-4C53-A118-2350A3E12220}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W52" sqref="W52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20110,33 +20133,33 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.97377000000000002</v>
+        <v>1.0003</v>
       </c>
       <c r="D3">
-        <v>0.97406999999999999</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="E3">
-        <v>0.97436</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="F3">
-        <v>0.97463999999999995</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="G3">
-        <v>0.97492000000000001</v>
+        <v>1.0014000000000001</v>
       </c>
       <c r="H3">
         <v>1.05</v>
@@ -20147,25 +20170,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.97382000000000002</v>
+        <v>1.0004</v>
       </c>
       <c r="D4">
-        <v>0.97414999999999996</v>
+        <v>1.0006999999999999</v>
       </c>
       <c r="E4">
-        <v>0.97448000000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F4">
-        <v>0.97479000000000005</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="G4">
-        <v>0.97507999999999995</v>
+        <v>1.0016</v>
       </c>
       <c r="H4">
         <v>1.05</v>
@@ -20179,22 +20202,22 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.97406999999999999</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D5">
-        <v>0.97467000000000004</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E5">
-        <v>0.97524999999999995</v>
+        <v>1.0018</v>
       </c>
       <c r="F5">
-        <v>0.97580999999999996</v>
+        <v>1.0023</v>
       </c>
       <c r="G5">
-        <v>0.97636000000000001</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="H5">
         <v>1.05</v>
@@ -20208,22 +20231,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.97426999999999997</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="D6">
-        <v>0.97504999999999997</v>
+        <v>1.0016</v>
       </c>
       <c r="E6">
-        <v>0.97582999999999998</v>
+        <v>1.0023</v>
       </c>
       <c r="F6">
-        <v>0.97658</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="G6">
-        <v>0.97731999999999997</v>
+        <v>1.0037</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -20237,22 +20260,22 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.97440000000000004</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="D7">
-        <v>0.97531000000000001</v>
+        <v>1.0018</v>
       </c>
       <c r="E7">
-        <v>0.97621000000000002</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="F7">
-        <v>0.97709000000000001</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="G7">
-        <v>0.97796000000000005</v>
+        <v>1.0044</v>
       </c>
       <c r="H7">
         <v>1.05</v>
@@ -20266,22 +20289,22 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.97445999999999999</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D8">
-        <v>0.97543999999999997</v>
+        <v>1.002</v>
       </c>
       <c r="E8">
-        <v>0.97640000000000005</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="F8">
-        <v>0.97735000000000005</v>
+        <v>1.0038</v>
       </c>
       <c r="G8">
-        <v>0.97828000000000004</v>
+        <v>1.0046999999999999</v>
       </c>
       <c r="H8">
         <v>1.05</v>
@@ -20295,22 +20318,22 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.97416000000000003</v>
+        <v>1.0004</v>
       </c>
       <c r="D9">
-        <v>0.97484999999999999</v>
+        <v>1.0006999999999999</v>
       </c>
       <c r="E9">
-        <v>0.97552000000000005</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F9">
-        <v>0.97616999999999998</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="G9">
-        <v>0.97680999999999996</v>
+        <v>1.0016</v>
       </c>
       <c r="H9">
         <v>1.05</v>
@@ -20324,22 +20347,22 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.97421999999999997</v>
+        <v>1.0004</v>
       </c>
       <c r="D10">
-        <v>0.97497</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="E10">
-        <v>0.97570000000000001</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="F10">
-        <v>0.97641</v>
+        <v>1.0016</v>
       </c>
       <c r="G10">
-        <v>0.97711000000000003</v>
+        <v>1.002</v>
       </c>
       <c r="H10">
         <v>1.05</v>
@@ -20353,22 +20376,22 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.97391000000000005</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D11">
-        <v>0.97435000000000005</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E11">
-        <v>0.97477000000000003</v>
+        <v>1.0018</v>
       </c>
       <c r="F11">
-        <v>0.97516999999999998</v>
+        <v>1.0024</v>
       </c>
       <c r="G11">
-        <v>0.97555999999999998</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="H11">
         <v>1.05</v>
@@ -20382,22 +20405,22 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.97411000000000003</v>
+        <v>1.0006999999999999</v>
       </c>
       <c r="D12">
-        <v>0.97472999999999999</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="E12">
-        <v>0.97533999999999998</v>
+        <v>1.0019</v>
       </c>
       <c r="F12">
-        <v>0.97594000000000003</v>
+        <v>1.0024999999999999</v>
       </c>
       <c r="G12">
-        <v>0.97652000000000005</v>
+        <v>1.0031000000000001</v>
       </c>
       <c r="H12">
         <v>1.05</v>
@@ -20411,22 +20434,22 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.97463999999999995</v>
+        <v>1.0006999999999999</v>
       </c>
       <c r="D13">
-        <v>0.97579000000000005</v>
+        <v>1.0014000000000001</v>
       </c>
       <c r="E13">
-        <v>0.97692999999999997</v>
+        <v>1.002</v>
       </c>
       <c r="F13">
-        <v>0.97804999999999997</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="G13">
-        <v>0.97914999999999996</v>
+        <v>1.0032000000000001</v>
       </c>
       <c r="H13">
         <v>1.05</v>
@@ -20440,22 +20463,22 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.97511999999999999</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="D14">
-        <v>0.97675000000000001</v>
+        <v>1.0015000000000001</v>
       </c>
       <c r="E14">
-        <v>0.97836999999999996</v>
+        <v>1.0022</v>
       </c>
       <c r="F14">
-        <v>0.97997000000000001</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="G14">
-        <v>0.98155000000000003</v>
+        <v>1.0035000000000001</v>
       </c>
       <c r="H14">
         <v>1.05</v>
@@ -20469,22 +20492,22 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.97518000000000005</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D15">
-        <v>0.97687999999999997</v>
+        <v>1.0011000000000001</v>
       </c>
       <c r="E15">
-        <v>0.97855999999999999</v>
+        <v>1.0016</v>
       </c>
       <c r="F15">
-        <v>0.98021999999999998</v>
+        <v>1.0021</v>
       </c>
       <c r="G15">
-        <v>0.98187000000000002</v>
+        <v>1.0025999999999999</v>
       </c>
       <c r="H15">
         <v>1.05</v>
@@ -20498,22 +20521,22 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.97445999999999999</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D16">
-        <v>0.97543999999999997</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E16">
-        <v>0.97640000000000005</v>
+        <v>1.0017</v>
       </c>
       <c r="F16">
-        <v>0.97733999999999999</v>
+        <v>1.0022</v>
       </c>
       <c r="G16">
-        <v>0.97826999999999997</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="H16">
         <v>1.05</v>
@@ -20527,22 +20550,22 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.97472000000000003</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D17">
-        <v>0.97594999999999998</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E17">
-        <v>0.97716999999999998</v>
+        <v>1.0018</v>
       </c>
       <c r="F17">
-        <v>0.97836999999999996</v>
+        <v>1.0024</v>
       </c>
       <c r="G17">
-        <v>0.97955000000000003</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="H17">
         <v>1.05</v>
@@ -20556,22 +20579,22 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.97496000000000005</v>
+        <v>1.0004999999999999</v>
       </c>
       <c r="D18">
-        <v>0.97643000000000002</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="E18">
-        <v>0.97789000000000004</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="F18">
-        <v>0.97931999999999997</v>
+        <v>1.0017</v>
       </c>
       <c r="G18">
-        <v>0.98073999999999995</v>
+        <v>1.002</v>
       </c>
       <c r="H18">
         <v>1.05</v>
@@ -20585,22 +20608,22 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.97504999999999997</v>
+        <v>1.0006999999999999</v>
       </c>
       <c r="D19">
-        <v>0.97662000000000004</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="E19">
-        <v>0.97818000000000005</v>
+        <v>1.0019</v>
       </c>
       <c r="F19">
-        <v>0.97970999999999997</v>
+        <v>1.0024</v>
       </c>
       <c r="G19">
-        <v>0.98121999999999998</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="H19">
         <v>1.05</v>
@@ -20614,22 +20637,22 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.97509999999999997</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="D20">
-        <v>0.97670999999999997</v>
+        <v>1.0023</v>
       </c>
       <c r="E20">
-        <v>0.97829999999999995</v>
+        <v>1.0034000000000001</v>
       </c>
       <c r="F20">
-        <v>0.97987000000000002</v>
+        <v>1.0044999999999999</v>
       </c>
       <c r="G20">
-        <v>0.98143000000000002</v>
+        <v>1.0055000000000001</v>
       </c>
       <c r="H20">
         <v>1.05</v>
@@ -20643,22 +20666,22 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0.97391000000000005</v>
+        <v>1.0016</v>
       </c>
       <c r="D21">
-        <v>0.97435000000000005</v>
+        <v>1.0032000000000001</v>
       </c>
       <c r="E21">
-        <v>0.97477000000000003</v>
+        <v>1.0047999999999999</v>
       </c>
       <c r="F21">
-        <v>0.97516999999999998</v>
+        <v>1.0063</v>
       </c>
       <c r="G21">
-        <v>0.97555999999999998</v>
+        <v>1.0079</v>
       </c>
       <c r="H21">
         <v>1.05</v>
@@ -20672,22 +20695,22 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0.97404000000000002</v>
+        <v>1.0017</v>
       </c>
       <c r="D22">
-        <v>0.97460000000000002</v>
+        <v>1.0034000000000001</v>
       </c>
       <c r="E22">
-        <v>0.97514999999999996</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F22">
-        <v>0.97568999999999995</v>
+        <v>1.0065999999999999</v>
       </c>
       <c r="G22">
-        <v>0.97619999999999996</v>
+        <v>1.0082</v>
       </c>
       <c r="H22">
         <v>1.05</v>
@@ -20701,22 +20724,22 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.97406000000000004</v>
+        <v>1.0004999999999999</v>
       </c>
       <c r="D23">
-        <v>0.97465000000000002</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="E23">
-        <v>0.97521999999999998</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="F23">
-        <v>0.97577999999999998</v>
+        <v>1.0017</v>
       </c>
       <c r="G23">
-        <v>0.97631999999999997</v>
+        <v>1.0021</v>
       </c>
       <c r="H23">
         <v>1.05</v>
@@ -20730,22 +20753,22 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.97426000000000001</v>
+        <v>1.0004999999999999</v>
       </c>
       <c r="D24">
-        <v>0.97504000000000002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="E24">
-        <v>0.97580999999999996</v>
+        <v>1.0015000000000001</v>
       </c>
       <c r="F24">
-        <v>0.97655999999999998</v>
+        <v>1.0019</v>
       </c>
       <c r="G24">
-        <v>0.97728999999999999</v>
+        <v>1.0024</v>
       </c>
       <c r="H24">
         <v>1.05</v>
@@ -20759,22 +20782,22 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.97443999999999997</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D25">
-        <v>0.97540000000000004</v>
+        <v>1.002</v>
       </c>
       <c r="E25">
-        <v>0.97635000000000005</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="F25">
-        <v>0.97726999999999997</v>
+        <v>1.0038</v>
       </c>
       <c r="G25">
-        <v>0.97819</v>
+        <v>1.0046999999999999</v>
       </c>
       <c r="H25">
         <v>1.05</v>
@@ -20788,22 +20811,22 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.97450000000000003</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="D26">
-        <v>0.97553000000000001</v>
+        <v>1.0024999999999999</v>
       </c>
       <c r="E26">
-        <v>0.97653999999999996</v>
+        <v>1.0036</v>
       </c>
       <c r="F26">
-        <v>0.97753000000000001</v>
+        <v>1.0047999999999999</v>
       </c>
       <c r="G26">
-        <v>0.97850999999999999</v>
+        <v>1.0059</v>
       </c>
       <c r="H26">
         <v>1.05</v>
@@ -20817,22 +20840,22 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.97379000000000004</v>
+        <v>1.0015000000000001</v>
       </c>
       <c r="D27">
-        <v>0.97411999999999999</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="E27">
-        <v>0.97443999999999997</v>
+        <v>1.0043</v>
       </c>
       <c r="F27">
-        <v>0.97475000000000001</v>
+        <v>1.0057</v>
       </c>
       <c r="G27">
-        <v>0.97504000000000002</v>
+        <v>1.0071000000000001</v>
       </c>
       <c r="H27">
         <v>1.05</v>
@@ -20846,22 +20869,22 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.97387999999999997</v>
+        <v>1.0016</v>
       </c>
       <c r="D28">
-        <v>0.97430000000000005</v>
+        <v>1.0031000000000001</v>
       </c>
       <c r="E28">
-        <v>0.97470000000000001</v>
+        <v>1.0045999999999999</v>
       </c>
       <c r="F28">
-        <v>0.97509000000000001</v>
+        <v>1.0061</v>
       </c>
       <c r="G28">
-        <v>0.97548000000000001</v>
+        <v>1.0075000000000001</v>
       </c>
       <c r="H28">
         <v>1.05</v>
@@ -20875,22 +20898,22 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.97406999999999999</v>
+        <v>1.0016</v>
       </c>
       <c r="D29">
-        <v>0.97467999999999999</v>
+        <v>1.0032000000000001</v>
       </c>
       <c r="E29">
-        <v>0.97528000000000004</v>
+        <v>1.0046999999999999</v>
       </c>
       <c r="F29">
-        <v>0.97585999999999995</v>
+        <v>1.0063</v>
       </c>
       <c r="G29">
-        <v>0.97643999999999997</v>
+        <v>1.0077</v>
       </c>
       <c r="H29">
         <v>1.05</v>
@@ -20904,22 +20927,22 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.97411000000000003</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="D30">
-        <v>0.97475000000000001</v>
+        <v>1.0018</v>
       </c>
       <c r="E30">
-        <v>0.97536999999999996</v>
+        <v>1.0025999999999999</v>
       </c>
       <c r="F30">
-        <v>0.97599000000000002</v>
+        <v>1.0034000000000001</v>
       </c>
       <c r="G30">
-        <v>0.97660000000000002</v>
+        <v>1.0042</v>
       </c>
       <c r="H30">
         <v>1.05</v>
@@ -20933,22 +20956,22 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.97399999999999998</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="D31">
-        <v>0.97453000000000001</v>
+        <v>1.0018</v>
       </c>
       <c r="E31">
-        <v>0.97506000000000004</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="F31">
-        <v>0.97557000000000005</v>
+        <v>1.0036</v>
       </c>
       <c r="G31">
-        <v>0.97606999999999999</v>
+        <v>1.0044</v>
       </c>
       <c r="H31">
         <v>1.05</v>
@@ -20962,22 +20985,22 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.97404000000000002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D32">
-        <v>0.97460999999999998</v>
+        <v>1.002</v>
       </c>
       <c r="E32">
-        <v>0.97516999999999998</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="F32">
-        <v>0.97572000000000003</v>
+        <v>1.0039</v>
       </c>
       <c r="G32">
-        <v>0.97626000000000002</v>
+        <v>1.0047999999999999</v>
       </c>
       <c r="H32">
         <v>1.05</v>
@@ -20991,22 +21014,22 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.97406999999999999</v>
+        <v>1.0004999999999999</v>
       </c>
       <c r="D33">
-        <v>0.97467000000000004</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="E33">
-        <v>0.97526000000000002</v>
+        <v>1.0013000000000001</v>
       </c>
       <c r="F33">
-        <v>0.97584000000000004</v>
+        <v>1.0017</v>
       </c>
       <c r="G33">
-        <v>0.97641</v>
+        <v>1.002</v>
       </c>
       <c r="H33">
         <v>1.05</v>
@@ -21020,22 +21043,22 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.97389999999999999</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D34">
-        <v>0.97433000000000003</v>
+        <v>1.0011000000000001</v>
       </c>
       <c r="E34">
-        <v>0.97475000000000001</v>
+        <v>1.0017</v>
       </c>
       <c r="F34">
-        <v>0.97516000000000003</v>
+        <v>1.0022</v>
       </c>
       <c r="G34">
-        <v>0.97555999999999998</v>
+        <v>1.0026999999999999</v>
       </c>
       <c r="H34">
         <v>1.05</v>
@@ -21049,22 +21072,22 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.97396000000000005</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D35">
-        <v>0.97445999999999999</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E35">
-        <v>0.97494000000000003</v>
+        <v>1.0017</v>
       </c>
       <c r="F35">
-        <v>0.97541</v>
+        <v>1.0023</v>
       </c>
       <c r="G35">
-        <v>0.97587999999999997</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="H35">
         <v>1.05</v>
@@ -21078,22 +21101,22 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.97435000000000005</v>
+        <v>1.0004</v>
       </c>
       <c r="D36">
-        <v>0.97523000000000004</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="E36">
-        <v>0.97609000000000001</v>
+        <v>1.0011000000000001</v>
       </c>
       <c r="F36">
-        <v>0.97694999999999999</v>
+        <v>1.0014000000000001</v>
       </c>
       <c r="G36">
-        <v>0.9778</v>
+        <v>1.0018</v>
       </c>
       <c r="H36">
         <v>1.05</v>
@@ -21107,22 +21130,22 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.97438000000000002</v>
+        <v>1.0007999999999999</v>
       </c>
       <c r="D37">
-        <v>0.97528999999999999</v>
+        <v>1.0016</v>
       </c>
       <c r="E37">
-        <v>0.97619</v>
+        <v>1.0023</v>
       </c>
       <c r="F37">
-        <v>0.97707999999999995</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="G37">
-        <v>0.97796000000000005</v>
+        <v>1.0037</v>
       </c>
       <c r="H37">
         <v>1.05</v>
@@ -21136,22 +21159,22 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.97445999999999999</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D38">
-        <v>0.97545000000000004</v>
+        <v>1.0019</v>
       </c>
       <c r="E38">
-        <v>0.97643000000000002</v>
+        <v>1.0027999999999999</v>
       </c>
       <c r="F38">
-        <v>0.97740000000000005</v>
+        <v>1.0037</v>
       </c>
       <c r="G38">
-        <v>0.97836000000000001</v>
+        <v>1.0045999999999999</v>
       </c>
       <c r="H38">
         <v>1.05</v>
@@ -21165,22 +21188,22 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.97382999999999997</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D39">
-        <v>0.97419999999999995</v>
+        <v>1.002</v>
       </c>
       <c r="E39">
-        <v>0.97455000000000003</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="F39">
-        <v>0.97489999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="G39">
-        <v>0.97524</v>
+        <v>1.0048999999999999</v>
       </c>
       <c r="H39">
         <v>1.05</v>
@@ -21194,22 +21217,22 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.97407999999999995</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D40">
-        <v>0.97468999999999995</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E40">
-        <v>0.97528999999999999</v>
+        <v>1.0018</v>
       </c>
       <c r="F40">
-        <v>0.97587999999999997</v>
+        <v>1.0024</v>
       </c>
       <c r="G40">
-        <v>0.97645000000000004</v>
+        <v>1.0028999999999999</v>
       </c>
       <c r="H40">
         <v>1.05</v>
@@ -21223,22 +21246,22 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>0.97345999999999999</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.97407999999999995</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="D41">
-        <v>0.97468999999999995</v>
+        <v>1.0012000000000001</v>
       </c>
       <c r="E41">
-        <v>0.97529999999999994</v>
+        <v>1.0018</v>
       </c>
       <c r="F41">
-        <v>0.97589000000000004</v>
+        <v>1.0024</v>
       </c>
       <c r="G41">
-        <v>0.97646999999999995</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="H41">
         <v>1.05</v>
@@ -21261,8 +21284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4602586-F971-457A-A2A4-CB2E1D288B5A}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21310,15 +21333,15 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.97346999999999995</v>
